--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8380" windowHeight="4400"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
+    <sheet name="TextData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>NameId</t>
   </si>
   <si>
     <t>ClassId</t>
@@ -31,61 +32,37 @@
     <t>InitLv</t>
   </si>
   <si>
+    <t>MaxLv</t>
+  </si>
+  <si>
     <t>InitHp</t>
   </si>
   <si>
-    <t>InitStr</t>
-  </si>
-  <si>
-    <t>InitMag</t>
-  </si>
-  <si>
-    <t>InitTec</t>
+    <t>InitMp</t>
+  </si>
+  <si>
+    <t>InitAtk</t>
   </si>
   <si>
     <t>InitSpd</t>
   </si>
   <si>
-    <t>InitLuc</t>
-  </si>
-  <si>
-    <t>InitDef</t>
-  </si>
-  <si>
-    <t>InitRes</t>
-  </si>
-  <si>
-    <t>InitMov</t>
-  </si>
-  <si>
-    <t>GrowthHp</t>
-  </si>
-  <si>
-    <t>GrowthStr</t>
-  </si>
-  <si>
-    <t>GrowthMag</t>
-  </si>
-  <si>
-    <t>GrowthTec</t>
-  </si>
-  <si>
-    <t>GrowthSpd</t>
-  </si>
-  <si>
-    <t>GrowthLuc</t>
-  </si>
-  <si>
-    <t>GrowthDef</t>
-  </si>
-  <si>
-    <t>GrowthRes</t>
-  </si>
-  <si>
-    <t>GrowthMov</t>
-  </si>
-  <si>
-    <t>ミカヤ</t>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>MaxMp</t>
+  </si>
+  <si>
+    <t>MaxAtk</t>
+  </si>
+  <si>
+    <t>MaxSpd</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>レン</t>
   </si>
 </sst>
 </file>
@@ -93,10 +70,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,9 +85,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,53 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,76 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,15 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,6 +446,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -489,17 +466,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,9 +496,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,145 +536,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,15 +1030,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1104,40 +1081,13 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1149,58 +1099,31 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
       <c r="I2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>40</v>
-      </c>
-      <c r="P2">
-        <v>15</v>
-      </c>
-      <c r="Q2">
-        <v>80</v>
-      </c>
-      <c r="R2">
-        <v>40</v>
-      </c>
-      <c r="S2">
-        <v>35</v>
-      </c>
-      <c r="T2">
-        <v>80</v>
-      </c>
-      <c r="U2">
         <v>20</v>
-      </c>
-      <c r="V2">
-        <v>90</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1208,4 +1131,37 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>MaxSpd</t>
+  </si>
+  <si>
+    <t>0001</t>
   </si>
   <si>
     <t>Text</t>
@@ -70,9 +73,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -85,20 +88,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -107,58 +96,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +109,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -188,9 +208,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,30 +230,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -237,13 +240,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +354,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,49 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,102 +421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,9 +451,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,26 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,6 +522,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,7 +539,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,7 +548,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,132 +557,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,11 +1038,14 @@
   <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1"/>
+  <cols>
+    <col min="4" max="4" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -1048,7 +1057,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1092,8 +1101,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1138,7 +1147,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1157,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
   </si>
   <si>
     <t>Text</t>
@@ -73,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,15 +93,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,7 +142,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,106 +164,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +176,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -240,13 +246,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,169 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,37 +440,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,8 +473,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,26 +518,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,145 +545,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,13 +1042,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="3"/>
   <cols>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
@@ -1133,6 +1139,94 @@
       </c>
       <c r="N2">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>65</v>
+      </c>
+      <c r="N3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>47</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1166,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
-    <sheet name="TextData" sheetId="2" r:id="rId2"/>
+    <sheet name="Learning" sheetId="3" r:id="rId2"/>
+    <sheet name="TextData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -68,10 +69,28 @@
     <t>0003</t>
   </si>
   <si>
+    <t>ActorId</t>
+  </si>
+  <si>
+    <t>SkillId</t>
+  </si>
+  <si>
+    <t>LearningType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
     <t>レン</t>
+  </si>
+  <si>
+    <t>エスト</t>
+  </si>
+  <si>
+    <t>リーヴァ</t>
   </si>
 </sst>
 </file>
@@ -79,15 +98,143 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -108,134 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -246,127 +265,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,55 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,17 +459,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,9 +515,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,56 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -545,145 +564,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,8 +1063,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="3"/>
@@ -1239,20 +1258,65 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1260,7 +1324,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -45,19 +45,40 @@
     <t>InitAtk</t>
   </si>
   <si>
+    <t>InitDef</t>
+  </si>
+  <si>
     <t>InitSpd</t>
   </si>
   <si>
-    <t>MaxHp</t>
-  </si>
-  <si>
-    <t>MaxMp</t>
-  </si>
-  <si>
-    <t>MaxAtk</t>
-  </si>
-  <si>
-    <t>MaxSpd</t>
+    <t>NeedHp</t>
+  </si>
+  <si>
+    <t>NeedMp</t>
+  </si>
+  <si>
+    <t>NeedAtk</t>
+  </si>
+  <si>
+    <t>NeedDef</t>
+  </si>
+  <si>
+    <t>NeedSpd</t>
+  </si>
+  <si>
+    <t>Element1</t>
+  </si>
+  <si>
+    <t>Element2</t>
+  </si>
+  <si>
+    <t>Element3</t>
+  </si>
+  <si>
+    <t>Element4</t>
+  </si>
+  <si>
+    <t>Element5</t>
   </si>
   <si>
     <t>0001</t>
@@ -69,6 +90,12 @@
     <t>0003</t>
   </si>
   <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
     <t>ActorId</t>
   </si>
   <si>
@@ -84,13 +111,19 @@
     <t>Text</t>
   </si>
   <si>
-    <t>レン</t>
-  </si>
-  <si>
-    <t>エスト</t>
-  </si>
-  <si>
-    <t>リーヴァ</t>
+    <t>ヘカテー</t>
+  </si>
+  <si>
+    <t>キャロライン</t>
+  </si>
+  <si>
+    <t>アリス</t>
+  </si>
+  <si>
+    <t>フリル</t>
+  </si>
+  <si>
+    <t>ニュクス</t>
   </si>
 </sst>
 </file>
@@ -99,9 +132,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,14 +146,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,109 +267,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,11 +282,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,187 +298,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,21 +489,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,8 +510,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,8 +545,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,15 +589,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,145 +597,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,18 +1094,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
   <cols>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,8 +1148,29 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1127,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1136,31 +1190,52 @@
         <v>40</v>
       </c>
       <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
       <c r="I2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
         <v>40</v>
       </c>
-      <c r="N2">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>20</v>
       </c>
+      <c r="U2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1171,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1180,31 +1255,52 @@
         <v>40</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>80</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>65</v>
-      </c>
-      <c r="N3">
-        <v>34</v>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1215,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1224,28 +1320,179 @@
         <v>40</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>50</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>40</v>
+      </c>
+      <c r="S5">
+        <v>60</v>
+      </c>
+      <c r="T5">
+        <v>100</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>47</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N4">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
         <v>27</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>40</v>
+      </c>
+      <c r="R6">
+        <v>40</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1268,16 +1515,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1303,20 +1550,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1324,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1332,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1340,7 +1587,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>Element5</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>AwakenX</t>
+  </si>
+  <si>
+    <t>AwakenY</t>
+  </si>
+  <si>
+    <t>AwakenScale</t>
   </si>
   <si>
     <t>0001</t>
@@ -146,6 +164,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -153,7 +179,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,23 +215,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,44 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -245,30 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,13 +306,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -298,181 +316,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +507,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,15 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -527,17 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +579,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -597,7 +615,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,136 +624,136 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1105,7 +1123,7 @@
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1169,8 +1187,26 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1181,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1234,8 +1270,26 @@
       <c r="U2">
         <v>50</v>
       </c>
+      <c r="V2">
+        <v>-200</v>
+      </c>
+      <c r="W2">
+        <v>-200</v>
+      </c>
+      <c r="X2">
+        <v>0.75</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>-24</v>
+      </c>
+      <c r="AA2">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1246,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1299,8 +1353,26 @@
       <c r="U3">
         <v>20</v>
       </c>
+      <c r="V3">
+        <v>-200</v>
+      </c>
+      <c r="W3">
+        <v>-40</v>
+      </c>
+      <c r="X3">
+        <v>0.8</v>
+      </c>
+      <c r="Y3">
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <v>-160</v>
+      </c>
+      <c r="AA3">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1311,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1364,8 +1436,26 @@
       <c r="U4">
         <v>0</v>
       </c>
+      <c r="V4">
+        <v>-104</v>
+      </c>
+      <c r="W4">
+        <v>-144</v>
+      </c>
+      <c r="X4">
+        <v>0.75</v>
+      </c>
+      <c r="Y4">
+        <v>80</v>
+      </c>
+      <c r="Z4">
+        <v>-96</v>
+      </c>
+      <c r="AA4">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1376,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1429,8 +1519,26 @@
       <c r="U5">
         <v>0</v>
       </c>
+      <c r="V5">
+        <v>-200</v>
+      </c>
+      <c r="W5">
+        <v>-16</v>
+      </c>
+      <c r="X5">
+        <v>0.8</v>
+      </c>
+      <c r="Y5">
+        <v>40</v>
+      </c>
+      <c r="Z5">
+        <v>-160</v>
+      </c>
+      <c r="AA5">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1441,7 +1549,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1493,6 +1601,24 @@
       </c>
       <c r="U6">
         <v>100</v>
+      </c>
+      <c r="V6">
+        <v>-80</v>
+      </c>
+      <c r="W6">
+        <v>-240</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>240</v>
+      </c>
+      <c r="Z6">
+        <v>16</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1515,16 +1641,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1563,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1571,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1579,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1587,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1595,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1603,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>SkillId</t>
-  </si>
-  <si>
-    <t>LearningType</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>Text</t>
@@ -149,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,7 +158,129 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,129 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,19 +310,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,163 +472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,13 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,17 +534,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,33 +593,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1631,40 +1625,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="B3">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1697,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1705,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1713,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1721,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1729,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,7 +158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,8 +171,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,24 +234,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,83 +295,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -310,25 +310,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,61 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,91 +448,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,21 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,17 +521,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -563,6 +541,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,17 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1265,13 +1265,13 @@
         <v>50</v>
       </c>
       <c r="V2">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>20</v>
       </c>
       <c r="V3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-40</v>
+        <v>-24</v>
       </c>
       <c r="X3">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Y3">
         <v>24</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>-104</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-144</v>
+        <v>-16</v>
       </c>
       <c r="X4">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="Y4">
         <v>80</v>
@@ -1514,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="X5">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="Y5">
         <v>40</v>
@@ -1597,13 +1597,13 @@
         <v>100</v>
       </c>
       <c r="V6">
-        <v>-80</v>
+        <v>24</v>
       </c>
       <c r="W6">
-        <v>-240</v>
+        <v>-40</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Y6">
         <v>240</v>
@@ -1627,7 +1627,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -157,6 +157,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -165,7 +173,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,61 +279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,36 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -293,13 +300,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,13 +316,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,163 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,6 +524,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,39 +572,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -601,6 +592,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,7 +609,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,7 +618,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,127 +627,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1108,7 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
@@ -1625,13 +1625,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1655,6 +1655,14 @@
       </c>
       <c r="B3">
         <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -154,6 +154,88 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,37 +247,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,74 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -284,22 +300,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,13 +316,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,19 +376,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,139 +430,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,15 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,6 +515,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +550,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,15 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1625,13 +1625,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1662,7 +1662,31 @@
         <v>1</v>
       </c>
       <c r="B4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -144,9 +144,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -154,6 +154,44 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,29 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -196,7 +211,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -204,14 +227,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,76 +288,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,65 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +551,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1625,13 +1625,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1687,6 +1687,54 @@
       </c>
       <c r="B7">
         <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -154,6 +154,126 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,54 +285,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,81 +300,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,13 +310,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,73 +436,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,91 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,15 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -528,11 +519,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,37 +577,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +592,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,16 +609,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,124 +630,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1625,10 +1625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1735,6 +1735,46 @@
       </c>
       <c r="B13">
         <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -144,8 +144,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -157,54 +157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +179,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,9 +231,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,21 +256,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,7 +270,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -287,19 +295,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,31 +310,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,13 +436,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,133 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,17 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,23 +531,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,15 +563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +586,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,7 +609,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,7 +618,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,127 +627,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1625,10 +1625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1775,6 +1775,94 @@
       </c>
       <c r="B18">
         <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -143,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -165,21 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,14 +180,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,7 +212,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +243,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,22 +273,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,25 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,13 +310,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,169 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,23 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,7 +517,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,22 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +581,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1274,10 +1274,10 @@
         <v>0.8</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="Z2">
-        <v>-24</v>
+        <v>264</v>
       </c>
       <c r="AA2">
         <v>0.75</v>
@@ -1357,10 +1357,10 @@
         <v>0.95</v>
       </c>
       <c r="Y3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-160</v>
+        <v>40</v>
       </c>
       <c r="AA3">
         <v>0.8</v>
@@ -1443,7 +1443,7 @@
         <v>80</v>
       </c>
       <c r="Z4">
-        <v>-96</v>
+        <v>200</v>
       </c>
       <c r="AA4">
         <v>0.7</v>
@@ -1523,10 +1523,10 @@
         <v>0.85</v>
       </c>
       <c r="Y5">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Z5">
-        <v>-160</v>
+        <v>80</v>
       </c>
       <c r="AA5">
         <v>0.8</v>
@@ -1606,10 +1606,10 @@
         <v>0.95</v>
       </c>
       <c r="Y6">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Z6">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -1625,10 +1625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1686,15 +1686,15 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>201</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>202</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1734,15 +1734,15 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>301</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>311</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1774,23 +1774,23 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>401</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>411</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1814,31 +1814,31 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>412</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>501</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>502</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>511</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1862,6 +1862,38 @@
         <v>5</v>
       </c>
       <c r="B29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
         <v>512</v>
       </c>
     </row>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,7 +158,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,8 +193,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -180,7 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +233,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -210,49 +270,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,32 +287,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,20 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +534,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -552,17 +569,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,19 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,16 +609,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,127 +627,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1229,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K2">
         <v>17</v>
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1627,8 +1627,8 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -157,15 +157,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,14 +205,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +221,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,23 +257,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,11 +271,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,40 +286,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,13 +310,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,157 +346,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,17 +504,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,26 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -569,11 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,8 +585,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,7 +609,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,7 +618,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,127 +627,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1395,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>21</v>
@@ -1410,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1625,10 +1625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>201</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1742,23 +1742,23 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>301</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>311</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1790,23 +1790,23 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>401</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>411</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1838,23 +1838,23 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>501</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>502</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1894,6 +1894,22 @@
         <v>5</v>
       </c>
       <c r="B33">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
         <v>512</v>
       </c>
     </row>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -144,30 +144,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -181,38 +165,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,9 +194,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,21 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -280,9 +264,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,6 +286,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -310,25 +310,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,19 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,133 +400,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +508,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,8 +516,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +552,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,21 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,15 +593,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -609,16 +609,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,127 +627,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1395,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>21</v>
@@ -1478,7 +1478,7 @@
         <v>22</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <v>26</v>
@@ -1493,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -1625,10 +1625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1798,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1806,15 +1806,15 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>401</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1854,23 +1854,23 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>501</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>502</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1910,6 +1910,22 @@
         <v>5</v>
       </c>
       <c r="B35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
         <v>512</v>
       </c>
     </row>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="10040" windowHeight="4780"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -143,8 +143,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -154,36 +154,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,16 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -225,16 +194,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,14 +218,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,17 +233,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +244,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,6 +269,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,13 +316,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,157 +406,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,24 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,8 +537,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +558,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -590,17 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="X2">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="Y2">
         <v>-32</v>
@@ -1348,13 +1348,13 @@
         <v>20</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W3">
-        <v>-24</v>
+        <v>28</v>
       </c>
       <c r="X3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W4">
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="X4">
         <v>0.9</v>
@@ -1514,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W5">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="X5">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="Y5">
         <v>24</v>
@@ -1600,7 +1600,7 @@
         <v>24</v>
       </c>
       <c r="W6">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="X6">
         <v>0.95</v>
@@ -1627,7 +1627,7 @@
   <sheetPr/>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10040" windowHeight="4780"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -157,61 +157,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,21 +173,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -256,6 +195,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -263,8 +233,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,17 +279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +310,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,13 +388,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,19 +454,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,133 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,17 +504,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,59 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -601,6 +577,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,7 +609,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,7 +618,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,127 +627,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1108,7 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
@@ -1627,8 +1627,8 @@
   <sheetPr/>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -143,15 +143,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -165,68 +173,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -249,7 +197,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,9 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,18 +272,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +508,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,18 +516,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -596,8 +585,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,7 +609,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,7 +618,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,127 +627,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1609,7 +1609,7 @@
         <v>264</v>
       </c>
       <c r="Z6">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -1627,7 +1627,7 @@
   <sheetPr/>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -143,23 +143,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -173,24 +165,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,8 +223,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,13 +249,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,40 +264,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,8 +285,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,19 +295,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,25 +310,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,13 +436,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,61 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,73 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,39 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,17 +519,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,19 +566,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1277,7 +1277,7 @@
         <v>-32</v>
       </c>
       <c r="Z2">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="AA2">
         <v>0.75</v>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -143,15 +143,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -165,13 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -180,8 +189,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,24 +234,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,23 +248,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -269,37 +300,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,181 +316,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,11 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,7 +558,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,23 +581,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1573,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6">
         <v>2</v>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -157,32 +157,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -198,13 +181,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -212,9 +188,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,18 +270,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,20 +286,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -277,25 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +524,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,54 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1108,7 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -1627,8 +1627,8 @@
   <sheetPr/>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="$A29:$XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -143,15 +143,60 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -166,9 +211,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,21 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,13 +235,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +257,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,52 +300,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,49 +310,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,37 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,90 +491,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,9 +506,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,26 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -601,6 +583,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1443,7 +1443,7 @@
         <v>80</v>
       </c>
       <c r="Z4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AA4">
         <v>0.7</v>
@@ -1526,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="Z5">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AA5">
         <v>0.8</v>
@@ -1606,10 +1606,10 @@
         <v>0.95</v>
       </c>
       <c r="Y6">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Z6">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -1625,10 +1625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="$A29:$XFD29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="$A31:$XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1686,15 +1686,15 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1742,23 +1742,23 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>211</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>212</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1790,31 +1790,31 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>302</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>311</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>312</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1838,39 +1838,39 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>31</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>401</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>402</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>411</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>412</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1886,46 +1886,6 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37">
         <v>512</v>
       </c>
     </row>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,15 +158,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,15 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -204,29 +204,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +218,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -263,23 +240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,12 +256,50 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,19 +310,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,103 +454,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,55 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,17 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,15 +515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,7 +561,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -596,8 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1108,7 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
@@ -1625,10 +1625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="$A31:$XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1686,15 +1686,15 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>201</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1742,23 +1742,23 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>301</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>311</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1790,31 +1790,31 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>402</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>411</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1838,39 +1838,39 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>412</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>501</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>511</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1886,6 +1886,46 @@
         <v>5</v>
       </c>
       <c r="B32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
         <v>512</v>
       </c>
     </row>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -157,8 +157,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,9 +194,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,60 +263,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,7 +278,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -265,41 +287,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,6 +316,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,19 +358,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,145 +424,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,17 +504,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,39 +544,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,23 +565,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1625,10 +1625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1758,15 +1758,15 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>301</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1814,15 +1814,15 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>401</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1870,15 +1870,15 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>501</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1926,6 +1926,14 @@
         <v>5</v>
       </c>
       <c r="B37">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
         <v>512</v>
       </c>
     </row>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -154,6 +154,21 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,9 +181,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,16 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,23 +240,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,24 +279,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,45 +300,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,11 +504,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,22 +558,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,30 +583,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1229,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <v>17</v>
@@ -1395,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>21</v>
@@ -1410,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1478,7 +1478,7 @@
         <v>22</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K5">
         <v>26</v>
@@ -1561,7 +1561,7 @@
         <v>31</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K6">
         <v>14</v>
@@ -1627,7 +1627,7 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -197,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -211,10 +211,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,7 +235,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,25 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,23 +318,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -317,41 +339,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -364,187 +364,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,11 +573,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,8 +606,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,34 +650,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,145 +663,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1754,7 +1754,7 @@
         <v>30</v>
       </c>
       <c r="N7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <v>50</v>
@@ -1766,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="R7">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>40</v>
       </c>
       <c r="I8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M8">
         <v>15</v>
@@ -1851,10 +1851,10 @@
         <v>50</v>
       </c>
       <c r="P8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R8">
         <v>30</v>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>SkillId</t>
+  </si>
+  <si>
+    <t>DeckNum</t>
   </si>
   <si>
     <t>Text</t>
@@ -197,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -211,9 +214,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,14 +312,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,21 +336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,22 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -294,66 +357,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -361,6 +364,132 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -370,19 +499,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,157 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +558,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,21 +581,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,26 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,9 +626,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,16 +666,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,127 +684,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,8 +1165,8 @@
   <sheetPr/>
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2176,620 +2179,848 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
         <v>201</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
         <v>202</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
         <v>201</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
         <v>211</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
         <v>212</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21">
         <v>301</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22">
         <v>302</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23">
         <v>311</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24">
         <v>312</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28">
         <v>401</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29">
         <v>403</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30">
         <v>411</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31">
         <v>412</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>5</v>
       </c>
       <c r="B34">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>5</v>
       </c>
       <c r="B35">
         <v>501</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36">
         <v>502</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>5</v>
       </c>
       <c r="B37">
         <v>511</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38">
         <v>512</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>6</v>
       </c>
       <c r="B40">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>6</v>
       </c>
       <c r="B41">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>6</v>
       </c>
       <c r="B42">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="B43">
         <v>201</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>6</v>
       </c>
       <c r="B44">
         <v>222</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>6</v>
       </c>
       <c r="B45">
         <v>213</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>6</v>
       </c>
       <c r="B46">
         <v>214</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>7</v>
       </c>
       <c r="B47">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>7</v>
       </c>
       <c r="B48">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>7</v>
       </c>
       <c r="B49">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>7</v>
       </c>
       <c r="B50">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>7</v>
       </c>
       <c r="B51">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>7</v>
       </c>
       <c r="B52">
         <v>501</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>7</v>
       </c>
       <c r="B53">
         <v>505</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>7</v>
       </c>
       <c r="B54">
         <v>513</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>7</v>
       </c>
       <c r="B55">
         <v>514</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>11</v>
       </c>
       <c r="B56">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>11</v>
       </c>
       <c r="B57">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>11</v>
       </c>
       <c r="B58">
         <v>31</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>11</v>
       </c>
       <c r="B59">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>11</v>
       </c>
       <c r="B60">
         <v>104</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>11</v>
       </c>
       <c r="B61">
         <v>113</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>11</v>
       </c>
       <c r="B62">
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>13</v>
       </c>
       <c r="B63">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>13</v>
       </c>
       <c r="B64">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>13</v>
       </c>
       <c r="B65">
         <v>31</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>13</v>
       </c>
       <c r="B66">
         <v>301</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>13</v>
       </c>
       <c r="B67">
         <v>322</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>13</v>
       </c>
       <c r="B68">
         <v>313</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>13</v>
       </c>
       <c r="B69">
         <v>314</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>14</v>
       </c>
       <c r="B70">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>14</v>
       </c>
       <c r="B71">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>14</v>
       </c>
       <c r="B72">
         <v>31</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>14</v>
       </c>
       <c r="B73">
         <v>401</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>14</v>
       </c>
       <c r="B74">
         <v>422</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>14</v>
       </c>
       <c r="B75">
         <v>413</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>14</v>
       </c>
       <c r="B76">
         <v>414</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2814,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2825,10 +3056,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2836,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2847,10 +3078,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2858,10 +3089,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2869,10 +3100,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2880,10 +3111,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2891,10 +3122,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2902,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2913,10 +3144,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2924,10 +3155,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -200,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -216,21 +216,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,7 +237,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,45 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,9 +282,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,35 +352,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -364,6 +364,108 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -373,31 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +493,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,121 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,9 +563,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,8 +605,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +637,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -649,15 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,145 +666,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,8 +1165,8 @@
   <sheetPr/>
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1317,19 +1317,19 @@
         <v>50</v>
       </c>
       <c r="S2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W2">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>90</v>
       </c>
       <c r="S3">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X3">
         <v>22</v>
@@ -1499,19 +1499,19 @@
         <v>40</v>
       </c>
       <c r="S4">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X4">
         <v>16</v>
@@ -1590,19 +1590,19 @@
         <v>60</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X5">
         <v>20</v>
@@ -1681,19 +1681,19 @@
         <v>50</v>
       </c>
       <c r="S6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="T6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>24</v>
@@ -1772,19 +1772,19 @@
         <v>80</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1863,19 +1863,19 @@
         <v>30</v>
       </c>
       <c r="S8">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="T8">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>24</v>
@@ -1954,19 +1954,19 @@
         <v>50</v>
       </c>
       <c r="S9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W9">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -2045,19 +2045,19 @@
         <v>30</v>
       </c>
       <c r="S10">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X10">
         <v>16</v>
@@ -2136,19 +2136,19 @@
         <v>70</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T11">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X11">
         <v>20</v>
@@ -2181,7 +2181,7 @@
   <sheetPr/>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -200,8 +200,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -214,82 +214,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +231,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,9 +266,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +321,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -342,11 +336,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,7 +367,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,55 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,115 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,56 +558,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,6 +581,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,7 +666,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,7 +675,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,127 +684,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,7 +1165,7 @@
   <sheetPr/>
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
@@ -2179,10 +2179,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>1010</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>1020</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>111</v>
+        <v>100110</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>112</v>
+        <v>100111</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>201</v>
+        <v>2010</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>202</v>
+        <v>2020</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>201</v>
+        <v>100210</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>211</v>
+        <v>100211</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>31</v>
+        <v>3010</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>301</v>
+        <v>3020</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>302</v>
+        <v>100310</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>311</v>
+        <v>100311</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>31</v>
+        <v>4010</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>401</v>
+        <v>4030</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>403</v>
+        <v>100410</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>411</v>
+        <v>100411</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2519,10 +2519,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>412</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>31</v>
+        <v>5010</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>501</v>
+        <v>5020</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>502</v>
+        <v>100510</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>511</v>
+        <v>100511</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>512</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="B41">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="B42">
-        <v>33</v>
+        <v>2010</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="B43">
-        <v>201</v>
+        <v>2070</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2665,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="B44">
-        <v>222</v>
+        <v>100610</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>6</v>
       </c>
       <c r="B45">
-        <v>213</v>
+        <v>100611</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2684,10 +2684,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>7</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>7</v>
       </c>
       <c r="B48">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="B49">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>7</v>
       </c>
       <c r="B50">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B51">
-        <v>42</v>
+        <v>5010</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>7</v>
       </c>
       <c r="B52">
-        <v>501</v>
+        <v>5050</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>7</v>
       </c>
       <c r="B53">
-        <v>505</v>
+        <v>100710</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>7</v>
       </c>
       <c r="B54">
-        <v>513</v>
+        <v>100711</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>514</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>11</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>11</v>
       </c>
       <c r="B58">
-        <v>31</v>
+        <v>1010</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>11</v>
       </c>
       <c r="B59">
-        <v>101</v>
+        <v>1040</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>11</v>
       </c>
       <c r="B60">
-        <v>104</v>
+        <v>11030</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>11</v>
       </c>
       <c r="B61">
-        <v>113</v>
+        <v>11040</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2860,10 +2860,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62">
         <v>11</v>
-      </c>
-      <c r="B62">
-        <v>114</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>13</v>
       </c>
       <c r="B63">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>13</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>13</v>
       </c>
       <c r="B65">
-        <v>31</v>
+        <v>3010</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>13</v>
       </c>
       <c r="B66">
-        <v>301</v>
+        <v>3070</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>13</v>
       </c>
       <c r="B67">
-        <v>322</v>
+        <v>100320</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>13</v>
       </c>
       <c r="B68">
-        <v>313</v>
+        <v>100321</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>14</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>14</v>
       </c>
       <c r="B72">
-        <v>31</v>
+        <v>4010</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>14</v>
       </c>
       <c r="B73">
-        <v>401</v>
+        <v>4070</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>14</v>
       </c>
       <c r="B74">
-        <v>422</v>
+        <v>100420</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3006,20 +3006,9 @@
         <v>14</v>
       </c>
       <c r="B75">
-        <v>413</v>
+        <v>100421</v>
       </c>
       <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>14</v>
-      </c>
-      <c r="B76">
-        <v>414</v>
-      </c>
-      <c r="C76">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Id</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>AwakenScale</t>
+  </si>
+  <si>
+    <t>Kind1</t>
+  </si>
+  <si>
+    <t>Kind2</t>
+  </si>
+  <si>
+    <t>Kind3</t>
   </si>
   <si>
     <t>0001</t>
@@ -200,9 +209,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -215,59 +224,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,15 +239,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,7 +255,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,9 +289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,10 +313,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,10 +343,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,19 +376,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +424,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,43 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,25 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,25 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,31 +532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,26 +570,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,16 +619,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,7 +648,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,145 +675,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1176,7 +1185,7 @@
     <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1258,8 +1267,17 @@
       <c r="AC1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1278,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1349,8 +1367,17 @@
       <c r="AC2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1369,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1440,8 +1467,17 @@
       <c r="AC3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1460,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1531,8 +1567,17 @@
       <c r="AC4">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1551,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1622,8 +1667,17 @@
       <c r="AC5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1642,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1713,8 +1767,17 @@
       <c r="AC6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1733,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1804,8 +1867,17 @@
       <c r="AC7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1824,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1895,8 +1967,17 @@
       <c r="AC8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1915,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1986,8 +2067,17 @@
       <c r="AC9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>13</v>
       </c>
@@ -2006,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2077,8 +2167,17 @@
       <c r="AC10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2097,7 +2196,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2167,6 +2266,15 @@
       </c>
       <c r="AC11">
         <v>0.8</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2181,7 +2289,7 @@
   <sheetPr/>
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -2189,13 +2297,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3034,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3045,10 +3153,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3056,10 +3164,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3067,10 +3175,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3078,10 +3186,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3089,10 +3197,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3100,10 +3208,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3111,10 +3219,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3122,10 +3230,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3133,10 +3241,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3144,10 +3252,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -209,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,22 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,21 +240,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,6 +269,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -289,8 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,11 +307,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,40 +344,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,13 +376,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,19 +436,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,43 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,13 +502,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,67 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,17 +570,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,7 +583,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,9 +605,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,35 +661,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,16 +675,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,124 +696,124 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,8 +1174,8 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1341,13 +1341,13 @@
         <v>4</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V2">
         <v>5</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="W3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X3">
         <v>22</v>
@@ -1544,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>7</v>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -209,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,39 +224,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +246,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -279,6 +268,38 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,38 +314,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,24 +352,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,7 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,25 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,13 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,25 +454,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,19 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,31 +532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,24 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,12 +585,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -625,21 +629,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,8 +651,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,145 +675,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,7 +1174,7 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
@@ -2287,10 +2287,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2347,7 +2347,7 @@
         <v>1010</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2358,7 +2358,7 @@
         <v>1020</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2366,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>100110</v>
+        <v>7010</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2377,18 +2377,18 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>100111</v>
+        <v>100110</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>100111</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>2010</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>100210</v>
+        <v>2020</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>100211</v>
+        <v>7010</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2473,10 +2473,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>100210</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>100211</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>3010</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>3020</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>100310</v>
+        <v>3010</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>100311</v>
+        <v>3020</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>7010</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2561,10 +2561,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>100310</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>31</v>
+        <v>100311</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>4010</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>4030</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>100410</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>100411</v>
+        <v>4010</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2627,10 +2627,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>4030</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>7010</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2649,10 +2649,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>100410</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2660,10 +2660,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>5010</v>
+        <v>100411</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>5020</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>100510</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>100511</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2704,10 +2704,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>5010</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>5020</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2726,10 +2726,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>31</v>
+        <v>7010</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>33</v>
+        <v>100510</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>2010</v>
+        <v>100511</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="B43">
-        <v>2070</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>6</v>
       </c>
       <c r="B44">
-        <v>100610</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="B45">
-        <v>100611</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>2010</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2814,10 +2814,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>31</v>
+        <v>2070</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>41</v>
+        <v>7010</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2836,10 +2836,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>42</v>
+        <v>100610</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>5010</v>
+        <v>100611</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="B52">
-        <v>5050</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="B53">
-        <v>100710</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="B54">
-        <v>100711</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B57">
-        <v>31</v>
+        <v>5010</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B58">
-        <v>1010</v>
+        <v>5050</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B59">
-        <v>1040</v>
+        <v>7010</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B60">
-        <v>11030</v>
+        <v>100710</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B61">
-        <v>11040</v>
+        <v>100711</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>21</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B64">
         <v>31</v>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>3010</v>
+        <v>1010</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3012,10 +3012,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>3070</v>
+        <v>1040</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>100320</v>
+        <v>7010</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3034,10 +3034,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B68">
-        <v>100321</v>
+        <v>11030</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>11040</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3056,10 +3056,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3067,10 +3067,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3078,10 +3078,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72">
-        <v>4010</v>
+        <v>31</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3089,10 +3089,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73">
-        <v>4070</v>
+        <v>3010</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3100,10 +3100,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74">
-        <v>100420</v>
+        <v>3070</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3111,12 +3111,122 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>7010</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>100320</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>100321</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
         <v>14</v>
       </c>
-      <c r="B75">
+      <c r="B78">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>31</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>4010</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>4070</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <v>7010</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <v>100420</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85">
         <v>100421</v>
       </c>
-      <c r="C75">
+      <c r="C85">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -210,8 +210,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -223,27 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -252,15 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,9 +246,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,49 +285,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,7 +309,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,7 +354,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,7 +376,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,97 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,31 +454,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,13 +502,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,21 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,9 +596,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,26 +667,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,145 +675,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2289,7 +2289,7 @@
   <sheetPr/>
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
@@ -3241,8 +3241,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -209,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -223,11 +223,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,37 +284,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,36 +315,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,31 +329,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,13 +376,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,19 +424,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,133 +544,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +567,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,77 +661,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,145 +675,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,8 +1174,8 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1311,7 +1311,7 @@
         <v>20</v>
       </c>
       <c r="K2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2">
         <v>18</v>
@@ -1426,7 +1426,7 @@
         <v>50</v>
       </c>
       <c r="P3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q3">
         <v>20</v>
@@ -1711,25 +1711,25 @@
         <v>20</v>
       </c>
       <c r="K6">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L6">
         <v>12</v>
       </c>
       <c r="M6">
+        <v>21</v>
+      </c>
+      <c r="N6">
         <v>20</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
       </c>
       <c r="O6">
         <v>50</v>
       </c>
       <c r="P6">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R6">
         <v>50</v>
@@ -3241,7 +3241,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>SkillId</t>
-  </si>
-  <si>
-    <t>DeckNum</t>
   </si>
   <si>
     <t>Text</t>
@@ -209,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -223,68 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,9 +243,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,16 +279,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,7 +310,46 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -353,15 +358,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,7 +373,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +463,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,79 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,25 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,49 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,26 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,32 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -645,6 +607,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -667,6 +644,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,145 +672,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,7 +1171,7 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -2287,947 +2284,692 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>31</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1010</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
         <v>1020</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>7010</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <v>100110</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
         <v>100111</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
         <v>21</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
         <v>31</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
         <v>32</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
         <v>2010</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
         <v>2020</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
         <v>7010</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
         <v>100210</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
         <v>100211</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19">
         <v>11</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20">
         <v>21</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21">
         <v>31</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22">
         <v>3010</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23">
         <v>3020</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24">
         <v>7010</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25">
         <v>100310</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26">
         <v>100311</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28">
         <v>21</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29">
         <v>31</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30">
         <v>4010</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31">
         <v>4030</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32">
         <v>7010</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>4</v>
       </c>
       <c r="B33">
         <v>100410</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>4</v>
       </c>
       <c r="B34">
         <v>100411</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>5</v>
       </c>
       <c r="B35">
         <v>11</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36">
         <v>21</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>5</v>
       </c>
       <c r="B37">
         <v>31</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38">
         <v>5010</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>5</v>
       </c>
       <c r="B39">
         <v>5020</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>5</v>
       </c>
       <c r="B40">
         <v>7010</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>5</v>
       </c>
       <c r="B41">
         <v>100510</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
         <v>100511</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="B43">
         <v>11</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>6</v>
       </c>
       <c r="B44">
         <v>21</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>6</v>
       </c>
       <c r="B45">
         <v>31</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>6</v>
       </c>
       <c r="B46">
         <v>33</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>6</v>
       </c>
       <c r="B47">
         <v>2010</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>6</v>
       </c>
       <c r="B48">
         <v>2070</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>6</v>
       </c>
       <c r="B49">
         <v>7010</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>6</v>
       </c>
       <c r="B50">
         <v>100610</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51">
         <v>100611</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>7</v>
       </c>
       <c r="B52">
         <v>11</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>7</v>
       </c>
       <c r="B53">
         <v>21</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>7</v>
       </c>
       <c r="B54">
         <v>31</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>7</v>
       </c>
       <c r="B55">
         <v>41</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>7</v>
       </c>
       <c r="B56">
         <v>42</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>7</v>
       </c>
       <c r="B57">
         <v>5010</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>7</v>
       </c>
       <c r="B58">
         <v>5050</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>7</v>
       </c>
       <c r="B59">
         <v>7010</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>7</v>
       </c>
       <c r="B60">
         <v>100710</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>7</v>
       </c>
       <c r="B61">
         <v>100711</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>11</v>
       </c>
       <c r="B62">
         <v>11</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>11</v>
       </c>
       <c r="B63">
         <v>21</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>11</v>
       </c>
       <c r="B64">
         <v>31</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>11</v>
       </c>
       <c r="B65">
         <v>1010</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>11</v>
       </c>
       <c r="B66">
         <v>1040</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>11</v>
       </c>
       <c r="B67">
         <v>7010</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>11</v>
       </c>
       <c r="B68">
         <v>11030</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>11</v>
       </c>
       <c r="B69">
         <v>11040</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>13</v>
       </c>
       <c r="B70">
         <v>11</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>13</v>
       </c>
       <c r="B71">
         <v>21</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>13</v>
       </c>
       <c r="B72">
         <v>31</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>13</v>
       </c>
       <c r="B73">
         <v>3010</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>13</v>
       </c>
       <c r="B74">
         <v>3070</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>13</v>
       </c>
       <c r="B75">
         <v>7010</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>13</v>
       </c>
       <c r="B76">
         <v>100320</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>13</v>
       </c>
       <c r="B77">
         <v>100321</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>14</v>
       </c>
       <c r="B78">
         <v>11</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>14</v>
       </c>
       <c r="B79">
         <v>21</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>14</v>
       </c>
       <c r="B80">
         <v>31</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>14</v>
       </c>
       <c r="B81">
         <v>4010</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>14</v>
       </c>
       <c r="B82">
         <v>4070</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>14</v>
       </c>
       <c r="B83">
         <v>7010</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>14</v>
       </c>
       <c r="B84">
         <v>100420</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>14</v>
       </c>
       <c r="B85">
         <v>100421</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3252,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3263,10 +3005,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3274,10 +3016,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3285,10 +3027,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3296,10 +3038,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3307,10 +3049,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3318,10 +3060,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3329,10 +3071,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3340,10 +3082,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3351,10 +3093,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3362,10 +3104,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -235,16 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,9 +250,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,68 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,10 +325,34 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,7 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +397,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,145 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,6 +582,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -593,21 +602,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,8 +624,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,11 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,142 +675,142 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,8 +1171,8 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1302,34 +1302,34 @@
         <v>40</v>
       </c>
       <c r="I2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>20</v>
       </c>
       <c r="K2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N2">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
         <v>50</v>
       </c>
-      <c r="P2">
-        <v>60</v>
-      </c>
       <c r="Q2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R2">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -2286,7 +2286,7 @@
   <sheetPr/>
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -206,8 +206,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -220,11 +220,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,14 +243,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,9 +279,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,14 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -293,16 +325,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,7 +334,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,38 +363,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -370,6 +370,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -379,7 +391,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,31 +499,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,133 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,24 +584,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,17 +611,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,11 +634,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,16 +672,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,127 +690,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,7 +1171,7 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -2286,8 +2286,8 @@
   <sheetPr/>
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1020</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -220,15 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -237,13 +230,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +245,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,9 +266,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,31 +304,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,17 +327,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,13 +342,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -370,6 +370,102 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -379,13 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +487,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,151 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +564,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -593,6 +602,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -604,6 +622,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,39 +664,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,145 +672,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,8 +1171,8 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1299,22 +1299,22 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>40</v>
@@ -1399,22 +1399,22 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="N3">
         <v>60</v>
@@ -1499,22 +1499,22 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I4">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
         <v>19</v>
-      </c>
-      <c r="L4">
-        <v>29</v>
-      </c>
-      <c r="M4">
-        <v>23</v>
       </c>
       <c r="N4">
         <v>60</v>
@@ -1599,22 +1599,22 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I5">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
         <v>20</v>
       </c>
-      <c r="K5">
-        <v>26</v>
-      </c>
       <c r="L5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>80</v>
@@ -2286,8 +2286,8 @@
   <sheetPr/>
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="$A34:$XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -2329,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1010</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1060</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>7010</v>
+        <v>100110</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>100110</v>
+        <v>100111</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>100111</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2401,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>2010</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2409,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>2020</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2417,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>7010</v>
+        <v>100210</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2425,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>100210</v>
+        <v>100211</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2433,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>100211</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2465,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>3010</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2473,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>3020</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2481,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>7010</v>
+        <v>100310</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2489,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>100310</v>
+        <v>100311</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2497,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>100311</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2529,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>4010</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2537,7 +2537,7 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>4030</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2545,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <v>7010</v>
+        <v>100410</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>100410</v>
+        <v>100411</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>100411</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="35" spans="1:2">

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -217,45 +217,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,24 +234,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,8 +290,53 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,37 +358,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,7 +373,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +403,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,109 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,49 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,11 +567,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,41 +628,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,17 +656,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,145 +672,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,8 +1171,8 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1302,19 +1302,19 @@
         <v>99</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2">
         <v>15</v>
       </c>
       <c r="K2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N2">
         <v>40</v>
@@ -1502,19 +1502,19 @@
         <v>99</v>
       </c>
       <c r="I4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>60</v>
@@ -1602,19 +1602,19 @@
         <v>99</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>80</v>
@@ -1699,22 +1699,22 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="M6">
         <v>12</v>
-      </c>
-      <c r="M6">
-        <v>21</v>
       </c>
       <c r="N6">
         <v>20</v>
@@ -2286,8 +2286,8 @@
   <sheetPr/>
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="$A34:$XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -2329,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2010</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2080</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2401,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>3010</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2409,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>3030</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2465,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>1010</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2473,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>1060</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2529,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>5010</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2537,7 +2537,7 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>5060</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2601,7 +2601,7 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <v>5020</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="40" spans="1:2">

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -150,49 +150,55 @@
     <t>SubName</t>
   </si>
   <si>
+    <t>ミカ</t>
+  </si>
+  <si>
+    <t>【煉獄棘姫】</t>
+  </si>
+  <si>
+    <t>エリザベート</t>
+  </si>
+  <si>
+    <t>【Electric-Force】</t>
+  </si>
+  <si>
+    <t>アリエス</t>
+  </si>
+  <si>
+    <t>【怠惰な守護少女】</t>
+  </si>
+  <si>
+    <t>フリル</t>
+  </si>
+  <si>
+    <t>【イノセンススマイル】</t>
+  </si>
+  <si>
+    <t>ニュクス</t>
+  </si>
+  <si>
+    <t>【Determination2Die】</t>
+  </si>
+  <si>
+    <t>フェリオ</t>
+  </si>
+  <si>
+    <t>【高速天翔】</t>
+  </si>
+  <si>
+    <t>メリー</t>
+  </si>
+  <si>
+    <t>【スーサイドジェノサイド】</t>
+  </si>
+  <si>
     <t>ヘカテー</t>
   </si>
   <si>
-    <t>【豊穣の月女神】</t>
-  </si>
-  <si>
-    <t>キャロライン</t>
-  </si>
-  <si>
-    <t>【ワイヤープリンセス】</t>
+    <t>【鳳凰演舞】</t>
   </si>
   <si>
     <t>アリス</t>
-  </si>
-  <si>
-    <t>【不思議の国の守護神】</t>
-  </si>
-  <si>
-    <t>フリル</t>
-  </si>
-  <si>
-    <t>【イノセンススマイル】</t>
-  </si>
-  <si>
-    <t>ニュクス</t>
-  </si>
-  <si>
-    <t>【Determination2Die】</t>
-  </si>
-  <si>
-    <t>フェリオ</t>
-  </si>
-  <si>
-    <t>【高速天翔】</t>
-  </si>
-  <si>
-    <t>メリー</t>
-  </si>
-  <si>
-    <t>【スーサイドジェノサイド】</t>
-  </si>
-  <si>
-    <t>【鳳凰演舞】</t>
   </si>
   <si>
     <t>【鏡の国の氷映譚】</t>
@@ -207,14 +213,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -228,7 +242,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,71 +356,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,35 +369,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -370,6 +376,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -379,7 +397,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,19 +463,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,133 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +570,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,15 +662,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -601,69 +670,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,16 +678,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,127 +696,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:M5"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1283,11 +1289,11 @@
       </c>
       <c r="C2" t="str">
         <f>INDEX(TextData!B:B,MATCH(B2,TextData!A:A))</f>
-        <v>ヘカテー</v>
+        <v>ミカ</v>
       </c>
       <c r="D2" t="str">
         <f>INDEX(TextData!C:C,MATCH(B2,TextData!A:A))</f>
-        <v>【豊穣の月女神】</v>
+        <v>【煉獄棘姫】</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1302,7 +1308,7 @@
         <v>99</v>
       </c>
       <c r="I2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J2">
         <v>15</v>
@@ -1311,10 +1317,10 @@
         <v>27</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N2">
         <v>40</v>
@@ -1350,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>-16</v>
+        <v>-40</v>
       </c>
       <c r="Z2">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AA2">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>224</v>
+        <v>-40</v>
       </c>
       <c r="AC2">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1383,11 +1389,11 @@
       </c>
       <c r="C3" t="str">
         <f>INDEX(TextData!B:B,MATCH(B3,TextData!A:A))</f>
-        <v>キャロライン</v>
+        <v>エリザベート</v>
       </c>
       <c r="D3" t="str">
         <f>INDEX(TextData!C:C,MATCH(B3,TextData!A:A))</f>
-        <v>【ワイヤープリンセス】</v>
+        <v>【Electric-Force】</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1402,7 +1408,7 @@
         <v>99</v>
       </c>
       <c r="I3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -1411,10 +1417,10 @@
         <v>12</v>
       </c>
       <c r="L3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>60</v>
@@ -1447,22 +1453,22 @@
         <v>4</v>
       </c>
       <c r="X3">
-        <v>22</v>
+        <v>-8</v>
       </c>
       <c r="Y3">
-        <v>28</v>
+        <v>-36</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AB3">
-        <v>40</v>
+        <v>-36</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1483,11 +1489,11 @@
       </c>
       <c r="C4" t="str">
         <f>INDEX(TextData!B:B,MATCH(B4,TextData!A:A))</f>
-        <v>アリス</v>
+        <v>アリエス</v>
       </c>
       <c r="D4" t="str">
         <f>INDEX(TextData!C:C,MATCH(B4,TextData!A:A))</f>
-        <v>【不思議の国の守護神】</v>
+        <v>【怠惰な守護少女】</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1547,22 +1553,22 @@
         <v>7</v>
       </c>
       <c r="X4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>-8</v>
+        <v>-64</v>
       </c>
       <c r="Z4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="AB4">
-        <v>120</v>
+        <v>-64</v>
       </c>
       <c r="AC4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -2286,7 +2292,7 @@
   <sheetPr/>
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2983,8 +2989,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -3082,10 +3088,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3093,10 +3099,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3107,7 +3113,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -168,40 +168,43 @@
     <t>【怠惰な守護少女】</t>
   </si>
   <si>
+    <t>ノエル</t>
+  </si>
+  <si>
+    <t>【イノセント・リメディ】</t>
+  </si>
+  <si>
+    <t>ニュクス</t>
+  </si>
+  <si>
+    <t>【Determination2Die】</t>
+  </si>
+  <si>
+    <t>フェリオ</t>
+  </si>
+  <si>
+    <t>【高速天翔】</t>
+  </si>
+  <si>
+    <t>メリー</t>
+  </si>
+  <si>
+    <t>【スーサイドジェノサイド】</t>
+  </si>
+  <si>
+    <t>ヘカテー</t>
+  </si>
+  <si>
+    <t>【鳳凰演舞】</t>
+  </si>
+  <si>
+    <t>アリス</t>
+  </si>
+  <si>
+    <t>【鏡の国の氷映譚】</t>
+  </si>
+  <si>
     <t>フリル</t>
-  </si>
-  <si>
-    <t>【イノセンススマイル】</t>
-  </si>
-  <si>
-    <t>ニュクス</t>
-  </si>
-  <si>
-    <t>【Determination2Die】</t>
-  </si>
-  <si>
-    <t>フェリオ</t>
-  </si>
-  <si>
-    <t>【高速天翔】</t>
-  </si>
-  <si>
-    <t>メリー</t>
-  </si>
-  <si>
-    <t>【スーサイドジェノサイド】</t>
-  </si>
-  <si>
-    <t>ヘカテー</t>
-  </si>
-  <si>
-    <t>【鳳凰演舞】</t>
-  </si>
-  <si>
-    <t>アリス</t>
-  </si>
-  <si>
-    <t>【鏡の国の氷映譚】</t>
   </si>
   <si>
     <t>【ライブフォーリナー】</t>
@@ -212,23 +215,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -242,24 +237,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,22 +282,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,18 +303,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,17 +351,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,7 +382,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +448,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,127 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,13 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,11 +576,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,50 +630,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,11 +658,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,145 +681,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,8 +1180,8 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1353,19 +1356,19 @@
         <v>2</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="Y2">
-        <v>-40</v>
+        <v>12</v>
       </c>
       <c r="Z2">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0.95</v>
@@ -1453,10 +1456,10 @@
         <v>4</v>
       </c>
       <c r="X3">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="Y3">
-        <v>-36</v>
+        <v>24</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -1465,7 +1468,7 @@
         <v>-8</v>
       </c>
       <c r="AB3">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -1553,19 +1556,19 @@
         <v>7</v>
       </c>
       <c r="X4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y4">
-        <v>-64</v>
+        <v>4</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA4">
         <v>10</v>
       </c>
       <c r="AB4">
-        <v>-64</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -1589,11 +1592,11 @@
       </c>
       <c r="C5" t="str">
         <f>INDEX(TextData!B:B,MATCH(B5,TextData!A:A))</f>
-        <v>フリル</v>
+        <v>ノエル</v>
       </c>
       <c r="D5" t="str">
         <f>INDEX(TextData!C:C,MATCH(B5,TextData!A:A))</f>
-        <v>【イノセンススマイル】</v>
+        <v>【イノセント・リメディ】</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1653,13 +1656,13 @@
         <v>7</v>
       </c>
       <c r="X5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>-12</v>
+        <v>-56</v>
       </c>
       <c r="Z5">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
         <v>24</v>
@@ -2990,7 +2993,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -3110,10 +3113,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -159,7 +159,7 @@
     <t>エリザベート</t>
   </si>
   <si>
-    <t>【Electric-Force】</t>
+    <t>【ChargeCommander】</t>
   </si>
   <si>
     <t>アリエス</t>
@@ -174,16 +174,16 @@
     <t>【イノセント・リメディ】</t>
   </si>
   <si>
-    <t>ニュクス</t>
-  </si>
-  <si>
-    <t>【Determination2Die】</t>
-  </si>
-  <si>
-    <t>フェリオ</t>
-  </si>
-  <si>
-    <t>【高速天翔】</t>
+    <t>レダ</t>
+  </si>
+  <si>
+    <t>【Self-sacrifice】</t>
+  </si>
+  <si>
+    <t>ナユタ</t>
+  </si>
+  <si>
+    <t>【Faked-Magician】</t>
   </si>
   <si>
     <t>メリー</t>
@@ -215,9 +215,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -230,14 +230,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,15 +258,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,60 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -335,15 +320,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -351,10 +328,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,6 +349,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -379,6 +379,66 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -388,13 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,19 +466,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,133 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +573,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,30 +602,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,26 +623,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,8 +633,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,6 +647,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -681,7 +681,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,136 +690,136 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,8 +1180,8 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D3" t="str">
         <f>INDEX(TextData!C:C,MATCH(B3,TextData!A:A))</f>
-        <v>【Electric-Force】</v>
+        <v>【ChargeCommander】</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1692,11 +1692,11 @@
       </c>
       <c r="C6" t="str">
         <f>INDEX(TextData!B:B,MATCH(B6,TextData!A:A))</f>
-        <v>ニュクス</v>
+        <v>レダ</v>
       </c>
       <c r="D6" t="str">
         <f>INDEX(TextData!C:C,MATCH(B6,TextData!A:A))</f>
-        <v>【Determination2Die】</v>
+        <v>【Self-sacrifice】</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1756,22 +1756,22 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>24</v>
+        <v>-20</v>
       </c>
       <c r="Y6">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AA6">
-        <v>292</v>
+        <v>-20</v>
       </c>
       <c r="AB6">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1792,11 +1792,11 @@
       </c>
       <c r="C7" t="str">
         <f>INDEX(TextData!B:B,MATCH(B7,TextData!A:A))</f>
-        <v>フェリオ</v>
+        <v>ナユタ</v>
       </c>
       <c r="D7" t="str">
         <f>INDEX(TextData!C:C,MATCH(B7,TextData!A:A))</f>
-        <v>【高速天翔】</v>
+        <v>【Faked-Magician】</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1856,22 +1856,22 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>-48</v>
+        <v>24</v>
       </c>
       <c r="AB7">
-        <v>16</v>
+        <v>-12</v>
       </c>
       <c r="AC7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2293,10 +2293,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A59" sqref="$A59:$XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -2666,7 +2666,7 @@
         <v>6</v>
       </c>
       <c r="B46">
-        <v>33</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>6</v>
       </c>
       <c r="B47">
-        <v>2010</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="B48">
-        <v>2070</v>
+        <v>100610</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>6</v>
       </c>
       <c r="B49">
-        <v>7010</v>
+        <v>100611</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2698,15 +2698,15 @@
         <v>6</v>
       </c>
       <c r="B50">
-        <v>100610</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>100611</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>7</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>7</v>
       </c>
       <c r="B53">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>7</v>
       </c>
       <c r="B54">
-        <v>31</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>7</v>
       </c>
       <c r="B55">
-        <v>41</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>7</v>
       </c>
       <c r="B56">
-        <v>42</v>
+        <v>100710</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>7</v>
       </c>
       <c r="B57">
-        <v>5010</v>
+        <v>100711</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2762,31 +2762,31 @@
         <v>7</v>
       </c>
       <c r="B58">
-        <v>5050</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B59">
-        <v>7010</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B60">
-        <v>100710</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B61">
-        <v>100711</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>11</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="B63">
-        <v>21</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="B64">
-        <v>31</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="B65">
-        <v>1010</v>
+        <v>11030</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2826,31 +2826,31 @@
         <v>11</v>
       </c>
       <c r="B66">
-        <v>1040</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
+        <v>13</v>
+      </c>
+      <c r="B67">
         <v>11</v>
-      </c>
-      <c r="B67">
-        <v>7010</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>11030</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>11040</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>13</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>13</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>13</v>
       </c>
       <c r="B72">
-        <v>31</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>13</v>
       </c>
       <c r="B73">
-        <v>3010</v>
+        <v>100320</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2890,31 +2890,31 @@
         <v>13</v>
       </c>
       <c r="B74">
-        <v>3070</v>
+        <v>100321</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>7010</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B76">
-        <v>100320</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B77">
-        <v>100321</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>14</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>14</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>14</v>
       </c>
       <c r="B80">
-        <v>31</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>14</v>
       </c>
       <c r="B81">
-        <v>4010</v>
+        <v>100420</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2954,30 +2954,6 @@
         <v>14</v>
       </c>
       <c r="B82">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>14</v>
-      </c>
-      <c r="B83">
-        <v>7010</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>14</v>
-      </c>
-      <c r="B84">
-        <v>100420</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>14</v>
-      </c>
-      <c r="B85">
         <v>100421</v>
       </c>
     </row>
@@ -2993,7 +2969,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -129,6 +129,9 @@
     <t>0007</t>
   </si>
   <si>
+    <t>0008</t>
+  </si>
+  <si>
     <t>0011</t>
   </si>
   <si>
@@ -186,10 +189,16 @@
     <t>【Faked-Magician】</t>
   </si>
   <si>
-    <t>メリー</t>
-  </si>
-  <si>
-    <t>【スーサイドジェノサイド】</t>
+    <t>ケイト</t>
+  </si>
+  <si>
+    <t>【無垢なる構成官】</t>
+  </si>
+  <si>
+    <t>マリーベル</t>
+  </si>
+  <si>
+    <t>【菜園の修道士】</t>
   </si>
   <si>
     <t>ヘカテー</t>
@@ -215,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -226,6 +235,21 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,14 +262,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,25 +290,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,6 +328,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -337,30 +369,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,7 +391,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,13 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,145 +559,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,17 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +605,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,17 +638,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,7 +663,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,17 +682,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -681,43 +690,43 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -729,97 +738,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,10 +1187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7:AC7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1856,10 +1865,10 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y7">
-        <v>-12</v>
+        <v>56</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1892,14 +1901,14 @@
       </c>
       <c r="C8" t="str">
         <f>INDEX(TextData!B:B,MATCH(B8,TextData!A:A))</f>
-        <v>メリー</v>
+        <v>ケイト</v>
       </c>
       <c r="D8" t="str">
         <f>INDEX(TextData!C:C,MATCH(B8,TextData!A:A))</f>
-        <v>【スーサイドジェノサイド】</v>
+        <v>【無垢なる構成官】</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>36</v>
@@ -1956,13 +1965,13 @@
         <v>1</v>
       </c>
       <c r="X8">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>-56</v>
       </c>
       <c r="Z8">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1985,18 +1994,18 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX(TextData!B:B,MATCH(B9,TextData!A:A))</f>
-        <v>ヘカテー</v>
+        <v>マリーベル</v>
       </c>
       <c r="D9" t="str">
         <f>INDEX(TextData!C:C,MATCH(B9,TextData!A:A))</f>
-        <v>【鳳凰演舞】</v>
+        <v>【菜園の修道士】</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2011,70 +2020,70 @@
         <v>40</v>
       </c>
       <c r="I9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>20</v>
       </c>
       <c r="K9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="O9">
         <v>50</v>
       </c>
       <c r="P9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>7</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="Y9">
-        <v>-16</v>
+        <v>36</v>
       </c>
       <c r="Z9">
-        <v>0.78</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AC9">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2085,21 +2094,21 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX(TextData!B:B,MATCH(B10,TextData!A:A))</f>
-        <v>アリス</v>
+        <v>ヘカテー</v>
       </c>
       <c r="D10" t="str">
         <f>INDEX(TextData!C:C,MATCH(B10,TextData!A:A))</f>
-        <v>【鏡の国の氷映譚】</v>
+        <v>【鳳凰演舞】</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>38</v>
@@ -2111,67 +2120,67 @@
         <v>40</v>
       </c>
       <c r="I10">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>20</v>
       </c>
       <c r="K10">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N10">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="O10">
         <v>50</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="Q10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
         <v>4</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>7</v>
       </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
       <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
         <v>3</v>
       </c>
-      <c r="W10">
-        <v>7</v>
-      </c>
       <c r="X10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="Z10">
+        <v>0.78</v>
+      </c>
+      <c r="AA10">
+        <v>24</v>
+      </c>
+      <c r="AB10">
+        <v>120</v>
+      </c>
+      <c r="AC10">
         <v>0.9</v>
-      </c>
-      <c r="AA10">
-        <v>80</v>
-      </c>
-      <c r="AB10">
-        <v>64</v>
-      </c>
-      <c r="AC10">
-        <v>0.8</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2185,21 +2194,21 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX(TextData!B:B,MATCH(B11,TextData!A:A))</f>
-        <v>フリル</v>
+        <v>アリス</v>
       </c>
       <c r="D11" t="str">
         <f>INDEX(TextData!C:C,MATCH(B11,TextData!A:A))</f>
-        <v>【ライブフォーリナー】</v>
+        <v>【鏡の国の氷映譚】</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>39</v>
@@ -2211,64 +2220,64 @@
         <v>40</v>
       </c>
       <c r="I11">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>20</v>
       </c>
       <c r="K11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O11">
         <v>50</v>
       </c>
       <c r="P11">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
         <v>30</v>
       </c>
-      <c r="R11">
-        <v>70</v>
-      </c>
       <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
         <v>7</v>
       </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
       <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
         <v>3</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
       </c>
       <c r="W11">
         <v>7</v>
       </c>
       <c r="X11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y11">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="Z11">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="AA11">
-        <v>-16</v>
+        <v>80</v>
       </c>
       <c r="AB11">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AC11">
         <v>0.8</v>
@@ -2280,6 +2289,106 @@
         <v>0</v>
       </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B12,TextData!A:A))</f>
+        <v>フリル</v>
+      </c>
+      <c r="D12" t="str">
+        <f>INDEX(TextData!C:C,MATCH(B12,TextData!A:A))</f>
+        <v>【ライブフォーリナー】</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>44</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>32</v>
+      </c>
+      <c r="N12">
+        <v>60</v>
+      </c>
+      <c r="O12">
+        <v>50</v>
+      </c>
+      <c r="P12">
+        <v>50</v>
+      </c>
+      <c r="Q12">
+        <v>30</v>
+      </c>
+      <c r="R12">
+        <v>70</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>7</v>
+      </c>
+      <c r="X12">
+        <v>20</v>
+      </c>
+      <c r="Y12">
+        <v>-12</v>
+      </c>
+      <c r="Z12">
+        <v>0.88</v>
+      </c>
+      <c r="AA12">
+        <v>-16</v>
+      </c>
+      <c r="AB12">
+        <v>40</v>
+      </c>
+      <c r="AC12">
+        <v>0.8</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>0</v>
       </c>
     </row>
@@ -2293,20 +2402,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A59" sqref="$A59:$XFD60"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2719,50 +2828,50 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>1010</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>1060</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>100710</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>100711</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>7010</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2770,7 +2879,7 @@
         <v>11</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2778,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2786,7 +2895,7 @@
         <v>11</v>
       </c>
       <c r="B61">
-        <v>31</v>
+        <v>11030</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2794,39 +2903,39 @@
         <v>11</v>
       </c>
       <c r="B62">
-        <v>1010</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63">
         <v>11</v>
-      </c>
-      <c r="B63">
-        <v>1040</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>7010</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>11030</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B66">
-        <v>11040</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2834,7 +2943,7 @@
         <v>13</v>
       </c>
       <c r="B67">
-        <v>11</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2842,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="B68">
-        <v>21</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2850,7 +2959,7 @@
         <v>13</v>
       </c>
       <c r="B69">
-        <v>31</v>
+        <v>100320</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2858,39 +2967,39 @@
         <v>13</v>
       </c>
       <c r="B70">
-        <v>3010</v>
+        <v>100321</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71">
-        <v>3070</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>7010</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73">
-        <v>100320</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>100321</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2898,7 +3007,7 @@
         <v>14</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2906,7 +3015,7 @@
         <v>14</v>
       </c>
       <c r="B76">
-        <v>21</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2914,7 +3023,7 @@
         <v>14</v>
       </c>
       <c r="B77">
-        <v>31</v>
+        <v>100420</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2922,38 +3031,6 @@
         <v>14</v>
       </c>
       <c r="B78">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>14</v>
-      </c>
-      <c r="B79">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>14</v>
-      </c>
-      <c r="B80">
-        <v>7010</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>14</v>
-      </c>
-      <c r="B81">
-        <v>100420</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>14</v>
-      </c>
-      <c r="B82">
         <v>100421</v>
       </c>
     </row>
@@ -2966,10 +3043,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2979,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2990,10 +3067,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3001,10 +3078,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3012,10 +3089,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3023,10 +3100,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3034,10 +3111,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3045,10 +3122,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3056,43 +3133,54 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -224,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -238,16 +238,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,8 +267,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,9 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,14 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,21 +331,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,7 +362,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,7 +391,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +463,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,91 +541,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,55 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,15 +582,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,17 +596,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,9 +617,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,15 +641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -682,6 +655,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -690,145 +690,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,8 +1189,8 @@
   <sheetPr/>
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1332,10 +1332,10 @@
         <v>14</v>
       </c>
       <c r="M2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O2">
         <v>20</v>
@@ -1344,7 +1344,7 @@
         <v>50</v>
       </c>
       <c r="Q2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R2">
         <v>26</v>
@@ -1426,28 +1426,28 @@
         <v>15</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>60</v>
       </c>
       <c r="O3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>20</v>
       </c>
       <c r="R3">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="S3">
         <v>3</v>
@@ -1526,28 +1526,28 @@
         <v>15</v>
       </c>
       <c r="K4">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P4">
         <v>20</v>
       </c>
       <c r="Q4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="R4">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="S4">
         <v>4</v>
@@ -1638,7 +1638,7 @@
         <v>80</v>
       </c>
       <c r="O5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P5">
         <v>30</v>
@@ -1738,7 +1738,7 @@
         <v>20</v>
       </c>
       <c r="O6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P6">
         <v>90</v>
@@ -1823,7 +1823,7 @@
         <v>33</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K7">
         <v>39</v>
@@ -1838,7 +1838,7 @@
         <v>40</v>
       </c>
       <c r="O7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P7">
         <v>90</v>
@@ -1923,7 +1923,7 @@
         <v>45</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K8">
         <v>33</v>
@@ -1938,7 +1938,7 @@
         <v>110</v>
       </c>
       <c r="O8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P8">
         <v>70</v>
@@ -2023,7 +2023,7 @@
         <v>45</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K9">
         <v>33</v>
@@ -2038,7 +2038,7 @@
         <v>110</v>
       </c>
       <c r="O9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P9">
         <v>70</v>
@@ -2123,7 +2123,7 @@
         <v>48</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K10">
         <v>35</v>
@@ -2138,7 +2138,7 @@
         <v>70</v>
       </c>
       <c r="O10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P10">
         <v>60</v>
@@ -2223,7 +2223,7 @@
         <v>38</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K11">
         <v>15</v>
@@ -2238,7 +2238,7 @@
         <v>50</v>
       </c>
       <c r="O11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P11">
         <v>10</v>
@@ -2323,7 +2323,7 @@
         <v>44</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K12">
         <v>30</v>
@@ -2338,7 +2338,7 @@
         <v>60</v>
       </c>
       <c r="O12">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P12">
         <v>50</v>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -224,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -238,16 +238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,16 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,9 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,9 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,6 +314,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,8 +366,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,7 +391,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +427,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +481,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,19 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,37 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,79 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,11 +617,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +635,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,27 +674,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,145 +690,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1335,7 +1335,7 @@
         <v>15</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O2">
         <v>20</v>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Id</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>SkillId</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>11,21,31,1010,1060,7010,100110,100120</t>
+  </si>
+  <si>
+    <t>11,21,31,2010,2080,7010,100210,100211</t>
+  </si>
+  <si>
+    <t>11,21,31,3010,3030,7010,100310,100311</t>
+  </si>
+  <si>
+    <t>11,21,31,4010,4030,7010,100410,100411</t>
+  </si>
+  <si>
+    <t>11,21,31,5010,5060,7010,100510,100511</t>
   </si>
   <si>
     <t>Text</t>
@@ -224,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -238,8 +256,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,24 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,26 +339,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,19 +355,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,7 +371,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -360,15 +379,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,187 +409,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,6 +600,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,26 +657,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,32 +684,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,145 +708,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,7 +1207,7 @@
   <sheetPr/>
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -2402,635 +2420,367 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="44.2727272727273" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>100111</v>
+      </c>
+      <c r="C3">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1010</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1060</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>100110</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>100111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>7010</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>100610</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>2010</v>
+        <v>100611</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>2080</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>100210</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>100211</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>7010</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>3010</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>3030</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>100310</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>100311</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>7010</v>
+        <v>11030</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>4010</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>4030</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>100410</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>100411</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>7010</v>
+        <v>100320</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>100321</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>5010</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>5060</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B40">
-        <v>7010</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>100510</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>100511</v>
+        <v>100420</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>6</v>
-      </c>
-      <c r="B44">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>6</v>
-      </c>
-      <c r="B45">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>6</v>
-      </c>
-      <c r="B46">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>6</v>
-      </c>
-      <c r="B47">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>6</v>
-      </c>
-      <c r="B48">
-        <v>100610</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>6</v>
-      </c>
-      <c r="B49">
-        <v>100611</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>6</v>
-      </c>
-      <c r="B50">
-        <v>7010</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>7</v>
-      </c>
-      <c r="B51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>7</v>
-      </c>
-      <c r="B52">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>8</v>
-      </c>
-      <c r="B53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>8</v>
-      </c>
-      <c r="B54">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>11</v>
-      </c>
-      <c r="B55">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>11</v>
-      </c>
-      <c r="B56">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>11</v>
-      </c>
-      <c r="B57">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>11</v>
-      </c>
-      <c r="B58">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>11</v>
-      </c>
-      <c r="B59">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>11</v>
-      </c>
-      <c r="B60">
-        <v>7010</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>11</v>
-      </c>
-      <c r="B61">
-        <v>11030</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>11</v>
-      </c>
-      <c r="B62">
-        <v>11040</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>13</v>
-      </c>
-      <c r="B63">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>13</v>
-      </c>
-      <c r="B64">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>13</v>
-      </c>
-      <c r="B65">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>13</v>
-      </c>
-      <c r="B66">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>13</v>
-      </c>
-      <c r="B67">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>13</v>
-      </c>
-      <c r="B68">
-        <v>7010</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>13</v>
-      </c>
-      <c r="B69">
-        <v>100320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>13</v>
-      </c>
-      <c r="B70">
-        <v>100321</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>14</v>
-      </c>
-      <c r="B71">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>14</v>
-      </c>
-      <c r="B72">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>14</v>
-      </c>
-      <c r="B73">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>14</v>
-      </c>
-      <c r="B74">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>14</v>
-      </c>
-      <c r="B75">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>14</v>
-      </c>
-      <c r="B76">
-        <v>7010</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>14</v>
-      </c>
-      <c r="B77">
-        <v>100420</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>14</v>
-      </c>
-      <c r="B78">
         <v>100421</v>
       </c>
     </row>
@@ -3056,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3067,10 +2817,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3078,10 +2828,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3089,10 +2839,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3100,10 +2850,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3111,10 +2861,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3122,10 +2872,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3133,10 +2883,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3144,10 +2894,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3155,10 +2905,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3166,10 +2916,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3177,10 +2927,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -153,16 +153,16 @@
     <t>11,21,31,1010,1060,7010,100110,100120</t>
   </si>
   <si>
-    <t>11,21,31,2010,2080,7010,100210,100211</t>
-  </si>
-  <si>
-    <t>11,21,31,3010,3030,7010,100310,100311</t>
+    <t>11,21,31,2010,2090,7010,100210,100211</t>
+  </si>
+  <si>
+    <t>11,21,31,3010,3070,7010,100310,100311</t>
   </si>
   <si>
     <t>11,21,31,4010,4030,7010,100410,100411</t>
   </si>
   <si>
-    <t>11,21,31,5010,5060,7010,100510,100511</t>
+    <t>11,21,31,5010,5080,7010,100510,100511</t>
   </si>
   <si>
     <t>Text</t>
@@ -242,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -256,17 +256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,37 +265,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,7 +294,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,22 +378,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +386,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,28 +399,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -409,19 +409,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,163 +571,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,16 +604,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,16 +643,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,15 +692,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -708,145 +708,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2423,7 +2423,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
     <t>11,21,31,1010,1060,7010,100110,100120</t>
   </si>
   <si>
-    <t>11,21,31,2010,2090,7010,100210,100211</t>
+    <t>11,21,31,2010,2080,7010,100210,100211</t>
   </si>
   <si>
     <t>11,21,31,3010,3070,7010,100310,100311</t>
@@ -242,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -257,70 +257,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,16 +278,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,7 +311,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,9 +346,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,6 +369,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -399,6 +391,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -409,187 +409,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,32 +603,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +617,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,35 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +676,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -708,16 +708,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,127 +726,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,8 +1207,8 @@
   <sheetPr/>
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1450,16 +1450,16 @@
         <v>5</v>
       </c>
       <c r="M3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O3">
         <v>20</v>
       </c>
       <c r="P3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q3">
         <v>20</v>
@@ -1559,10 +1559,10 @@
         <v>20</v>
       </c>
       <c r="P4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="R4">
         <v>15</v>
@@ -1662,10 +1662,10 @@
         <v>30</v>
       </c>
       <c r="Q5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R5">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="S5">
         <v>7</v>
@@ -1747,25 +1747,25 @@
         <v>12</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M6">
         <v>12</v>
       </c>
       <c r="N6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O6">
         <v>20</v>
       </c>
       <c r="P6">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="Q6">
         <v>30</v>
       </c>
       <c r="R6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="S6">
         <v>4</v>
@@ -2422,7 +2422,7 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -242,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -257,7 +257,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,129 +394,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,187 +409,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,45 +608,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,10 +629,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -682,6 +641,36 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +689,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -708,145 +708,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,19 +1353,19 @@
         <v>15</v>
       </c>
       <c r="N2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q2">
         <v>40</v>
       </c>
       <c r="R2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -1450,22 +1450,22 @@
         <v>5</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N3">
+        <v>55</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
         <v>40</v>
-      </c>
-      <c r="O3">
-        <v>20</v>
-      </c>
-      <c r="P3">
-        <v>35</v>
       </c>
       <c r="Q3">
         <v>20</v>
       </c>
       <c r="R3">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="S3">
         <v>3</v>
@@ -1553,10 +1553,10 @@
         <v>9</v>
       </c>
       <c r="N4">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P4">
         <v>25</v>
@@ -1565,7 +1565,7 @@
         <v>60</v>
       </c>
       <c r="R4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="S4">
         <v>4</v>
@@ -1653,19 +1653,19 @@
         <v>21</v>
       </c>
       <c r="N5">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P5">
+        <v>35</v>
+      </c>
+      <c r="Q5">
+        <v>35</v>
+      </c>
+      <c r="R5">
         <v>30</v>
-      </c>
-      <c r="Q5">
-        <v>30</v>
-      </c>
-      <c r="R5">
-        <v>20</v>
       </c>
       <c r="S5">
         <v>7</v>
@@ -1753,19 +1753,19 @@
         <v>12</v>
       </c>
       <c r="N6">
+        <v>70</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="Q6">
         <v>50</v>
       </c>
-      <c r="O6">
-        <v>20</v>
-      </c>
-      <c r="P6">
-        <v>25</v>
-      </c>
-      <c r="Q6">
-        <v>30</v>
-      </c>
       <c r="R6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S6">
         <v>4</v>

--- a/Assets/Data/Actors.xlsx
+++ b/Assets/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -243,9 +243,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -257,7 +257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,15 +265,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,14 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,11 +316,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,35 +328,6 @@
       <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,15 +349,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,11 +371,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -409,25 +409,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,157 +553,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,11 +603,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,15 +653,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -656,6 +664,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,28 +692,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,16 +708,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,127 +726,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,7 +1207,7 @@
   <sheetPr/>
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -2420,10 +2420,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2458,66 +2458,75 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1020</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>100111</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2040</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
+        <v>3020</v>
+      </c>
+      <c r="C8">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2525,7 +2534,7 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>1010</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2533,7 +2542,7 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>1060</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2541,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>100610</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2549,7 +2558,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>100611</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2557,63 +2566,63 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>7010</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>100610</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>100611</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
         <v>11</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2621,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>1010</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2629,7 +2638,7 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>1040</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2637,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>7010</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2645,7 +2654,7 @@
         <v>11</v>
       </c>
       <c r="B26">
-        <v>11030</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2653,31 +2662,31 @@
         <v>11</v>
       </c>
       <c r="B27">
-        <v>11040</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>11030</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>13</v>
+       